--- a/biology/Botanique/Lepidium/Lepidium.xlsx
+++ b/biology/Botanique/Lepidium/Lepidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidium est un des nombreux genres de la famille des Brassicaceae (Crucifères), dont les membres sont appelés passerages, cressons ou cornes-de-cerf.
 Les principales espèces sauvages de Lepidium andins sont Lepidium chichicara et Lepidium bipinnatifidum. Leur racine filiforme n'est jamais consommée comme aliment ; seule la partie aérienne est employée en décoction comme vermifuge, un remède très connu dans les Andes.[réf. nécessaire] Leur appareil reproducteur contient 2 ou 4 étamines (exception car les Brassicaceae en comportent généralement 6).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Lepidium vient du grec λεπίς, lepis, « coquille, écaille » en raison de la forme de ses fruits (siliques)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Lepidium vient du grec λεπίς, lepis, « coquille, écaille » en raison de la forme de ses fruits (siliques).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Listes des principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lepidium africanum (Burm. f.) DC.
 Lepidium alyssoides Gray
